--- a/百邦所得税汇算底稿工具/研发加计汇总表.xlsx
+++ b/百邦所得税汇算底稿工具/研发加计汇总表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\白鷐\Documents\Visual Studio 2015\Projects\百邦所得税汇算底稿工具\百邦所得税汇算底稿工具\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3108" yWindow="1836" windowWidth="12228" windowHeight="6180" activeTab="1"/>
+    <workbookView xWindow="3105" yWindow="1830" windowWidth="12225" windowHeight="6180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="研发加计扣除归集审核表" sheetId="1" r:id="rId1"/>
@@ -1332,144 +1327,144 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="25" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="25" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="26" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="25" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="25" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="26" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1478,24 +1473,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="18" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="19" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="20" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="21" builtinId="17" customBuiltin="1"/>
@@ -1511,15 +1506,15 @@
     <cellStyle name="警告文本" xfId="30" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="31" builtinId="24" customBuiltin="1"/>
     <cellStyle name="千位分隔" xfId="42" builtinId="3"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="33" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="34" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="36" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="39" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="40" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="32" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="33" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="34" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="36" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="41" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1543,7 +1538,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1585,7 +1580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1620,7 +1615,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1834,1074 +1829,1069 @@
   </sheetPr>
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:D106"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="48">
+      <c r="C6" s="31"/>
+      <c r="D6" s="19">
         <f>SUM(D7:D9)</f>
         <v>0</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="6"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
         <v>1.2</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="6"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
         <v>1.3</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="48">
+      <c r="C10" s="31"/>
+      <c r="D10" s="19">
         <f>SUM(D11:D18)</f>
         <v>0</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
         <v>2.1</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="6"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
         <v>2.4</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="6"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>2.5</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="6"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
         <v>2.6</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="6"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
         <v>2.7</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="6"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
         <v>2.8</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="6"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
         <v>3</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="48">
+      <c r="C19" s="36"/>
+      <c r="D19" s="19">
         <f>SUM(D20:D21)</f>
         <v>0</v>
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>3.1</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="6"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <v>3.2</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="6"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
         <v>4</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="48"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="19">
+        <f>SUM(D23:D25)</f>
+        <v>0</v>
+      </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="6"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
         <v>4.2</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="6"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
         <v>4.3</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="6"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
         <v>5</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="48">
+      <c r="C26" s="47"/>
+      <c r="D26" s="19">
         <f>SUM(D27:D30)</f>
         <v>0</v>
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="6"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
         <v>5.2</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="6"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
         <v>5.3</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="6"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
         <v>5.4</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="6"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
         <v>6</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="48">
+      <c r="C31" s="45"/>
+      <c r="D31" s="19">
         <f>SUM(D32:D71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50" t="s">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50" t="s">
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50" t="s">
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="50" t="s">
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="50" t="s">
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="50" t="s">
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="50" t="s">
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="50" t="s">
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50" t="s">
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="50" t="s">
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="50" t="s">
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50" t="s">
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="50" t="s">
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="50" t="s">
+      <c r="B68" s="37"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="50" t="s">
+      <c r="B69" s="37"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="50" t="s">
+      <c r="B70" s="37"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24">
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="15">
         <v>7</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24">
+      <c r="C72" s="31"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="15">
         <v>7.1</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="24">
+      <c r="C73" s="33"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="15">
         <v>8</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="48">
+      <c r="C74" s="31"/>
+      <c r="D74" s="19">
         <f>D6+D10+D19+D22+D26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="24">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="15">
         <v>8.1</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="39"/>
-      <c r="D75" s="48">
+      <c r="C75" s="34"/>
+      <c r="D75" s="19">
         <f>ROUND(D74*0.1/0.9,2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="24">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="15">
         <v>9</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="24">
+      <c r="C76" s="31"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="15">
         <v>10</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="24">
+      <c r="C77" s="31"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="15">
         <v>10.1</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="45">
+      <c r="C78" s="33"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18">
         <v>11</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="49">
+      <c r="C79" s="51"/>
+      <c r="D79" s="20">
         <f>ROUND((D76+D78)*0.5,2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+    </row>
+    <row r="91" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+    </row>
+    <row r="92" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+    </row>
+    <row r="94" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+    </row>
+    <row r="95" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="B95" s="48"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="B100" s="48"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+    </row>
+    <row r="101" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+      <c r="B101" s="48"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+    </row>
+    <row r="102" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="48"/>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+      <c r="B103" s="48"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="48"/>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+    </row>
+    <row r="110" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-    </row>
-    <row r="111" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
+      <c r="B110" s="48"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="48"/>
+    </row>
+    <row r="111" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+    </row>
+    <row r="112" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-    </row>
-    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+    </row>
+    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+    </row>
+    <row r="114" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+    </row>
+    <row r="115" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="D116" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
@@ -2967,15 +2957,14 @@
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
@@ -2985,11 +2974,9 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B16:C16"/>
@@ -2999,11 +2986,22 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3019,425 +3017,428 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:C69"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="33" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="25.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="48">
+      <c r="C6" s="31"/>
+      <c r="D6" s="19">
         <f>SUM(D7:D9)</f>
         <v>0</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="22">
         <f>研发加计扣除归集审核表!D7</f>
         <v>0</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
         <v>1.2</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="22">
         <f>研发加计扣除归集审核表!D8</f>
         <v>0</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
         <v>1.3</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="51">
+      <c r="C9" s="33"/>
+      <c r="D9" s="22">
         <f>研发加计扣除归集审核表!D9</f>
         <v>0</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="48">
+      <c r="C10" s="31"/>
+      <c r="D10" s="19">
         <f>SUM(D11:D18)</f>
         <v>0</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
         <v>2.1</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="22">
         <f>研发加计扣除归集审核表!D11</f>
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="22">
         <f>研发加计扣除归集审核表!D12</f>
         <v>0</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="22">
         <f>研发加计扣除归集审核表!D13</f>
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
         <v>2.4</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="51">
+      <c r="C14" s="41"/>
+      <c r="D14" s="22">
         <f>研发加计扣除归集审核表!D14</f>
         <v>0</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>2.5</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="51">
+      <c r="C15" s="41"/>
+      <c r="D15" s="22">
         <f>研发加计扣除归集审核表!D15</f>
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
         <v>2.6</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="51">
+      <c r="C16" s="41"/>
+      <c r="D16" s="22">
         <f>研发加计扣除归集审核表!D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
         <v>2.7</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="51">
+      <c r="C17" s="41"/>
+      <c r="D17" s="22">
         <f>研发加计扣除归集审核表!D17</f>
         <v>0</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
         <v>2.8</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="51">
+      <c r="C18" s="41"/>
+      <c r="D18" s="22">
         <f>研发加计扣除归集审核表!D18</f>
         <v>0</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
         <v>3</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="48">
+      <c r="C19" s="36"/>
+      <c r="D19" s="19">
         <f>SUM(D20:D21)</f>
         <v>0</v>
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>3.1</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="51">
+      <c r="C20" s="34"/>
+      <c r="D20" s="22">
         <f>研发加计扣除归集审核表!D20</f>
         <v>0</v>
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <v>3.2</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="51">
+      <c r="C21" s="34"/>
+      <c r="D21" s="22">
         <f>研发加计扣除归集审核表!D21</f>
         <v>0</v>
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
         <v>4</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="48"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="19">
+        <f>SUM(D23:D25)</f>
+        <v>0</v>
+      </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="51">
+      <c r="C23" s="33"/>
+      <c r="D23" s="22">
         <f>研发加计扣除归集审核表!D23</f>
         <v>0</v>
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
         <v>4.2</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="51">
+      <c r="C24" s="33"/>
+      <c r="D24" s="22">
         <f>研发加计扣除归集审核表!D24</f>
         <v>0</v>
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
         <v>4.3</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="51">
+      <c r="C25" s="46"/>
+      <c r="D25" s="22">
         <f>研发加计扣除归集审核表!D25</f>
         <v>0</v>
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
         <v>5</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="48">
+      <c r="C26" s="47"/>
+      <c r="D26" s="19">
         <f>SUM(D27:D30)</f>
         <v>0</v>
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="51">
+      <c r="C27" s="43"/>
+      <c r="D27" s="22">
         <f>研发加计扣除归集审核表!D27</f>
         <v>0</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
         <v>5.2</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="51">
+      <c r="C28" s="43"/>
+      <c r="D28" s="22">
         <f>研发加计扣除归集审核表!D28</f>
         <v>0</v>
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
         <v>5.3</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="51">
+      <c r="C29" s="43"/>
+      <c r="D29" s="22">
         <f>研发加计扣除归集审核表!D29</f>
         <v>0</v>
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
         <v>5.4</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="51">
+      <c r="C30" s="43"/>
+      <c r="D30" s="22">
         <f>研发加计扣除归集审核表!D30</f>
         <v>0</v>
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
         <v>6</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="48">
+      <c r="C31" s="45"/>
+      <c r="D31" s="19">
         <f>SUM(D32:D71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B32" s="52" t="str">
@@ -3445,13 +3446,13 @@
         <v/>
       </c>
       <c r="C32" s="53"/>
-      <c r="D32" s="51">
+      <c r="D32" s="22">
         <f>研发加计扣除归集审核表!D32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="52" t="str">
@@ -3459,13 +3460,13 @@
         <v/>
       </c>
       <c r="C33" s="53"/>
-      <c r="D33" s="51">
+      <c r="D33" s="22">
         <f>研发加计扣除归集审核表!D33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B34" s="52" t="str">
@@ -3473,13 +3474,13 @@
         <v/>
       </c>
       <c r="C34" s="53"/>
-      <c r="D34" s="51">
+      <c r="D34" s="22">
         <f>研发加计扣除归集审核表!D34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
         <v>80</v>
       </c>
       <c r="B35" s="52" t="str">
@@ -3487,13 +3488,13 @@
         <v/>
       </c>
       <c r="C35" s="53"/>
-      <c r="D35" s="51">
+      <c r="D35" s="22">
         <f>研发加计扣除归集审核表!D35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
         <v>81</v>
       </c>
       <c r="B36" s="52" t="str">
@@ -3501,13 +3502,13 @@
         <v/>
       </c>
       <c r="C36" s="53"/>
-      <c r="D36" s="51">
+      <c r="D36" s="22">
         <f>研发加计扣除归集审核表!D36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="52" t="str">
@@ -3515,13 +3516,13 @@
         <v/>
       </c>
       <c r="C37" s="53"/>
-      <c r="D37" s="51">
+      <c r="D37" s="22">
         <f>研发加计扣除归集审核表!D37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="52" t="str">
@@ -3529,13 +3530,13 @@
         <v/>
       </c>
       <c r="C38" s="53"/>
-      <c r="D38" s="51">
+      <c r="D38" s="22">
         <f>研发加计扣除归集审核表!D38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
         <v>84</v>
       </c>
       <c r="B39" s="52" t="str">
@@ -3543,13 +3544,13 @@
         <v/>
       </c>
       <c r="C39" s="53"/>
-      <c r="D39" s="51">
+      <c r="D39" s="22">
         <f>研发加计扣除归集审核表!D39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B40" s="52" t="str">
@@ -3557,13 +3558,13 @@
         <v/>
       </c>
       <c r="C40" s="53"/>
-      <c r="D40" s="51">
+      <c r="D40" s="22">
         <f>研发加计扣除归集审核表!D40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="52" t="str">
@@ -3571,13 +3572,13 @@
         <v/>
       </c>
       <c r="C41" s="53"/>
-      <c r="D41" s="51">
+      <c r="D41" s="22">
         <f>研发加计扣除归集审核表!D41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="52" t="str">
@@ -3585,13 +3586,13 @@
         <v/>
       </c>
       <c r="C42" s="53"/>
-      <c r="D42" s="51">
+      <c r="D42" s="22">
         <f>研发加计扣除归集审核表!D42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50" t="s">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="52" t="str">
@@ -3599,13 +3600,13 @@
         <v/>
       </c>
       <c r="C43" s="53"/>
-      <c r="D43" s="51">
+      <c r="D43" s="22">
         <f>研发加计扣除归集审核表!D43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="52" t="str">
@@ -3613,13 +3614,13 @@
         <v/>
       </c>
       <c r="C44" s="53"/>
-      <c r="D44" s="51">
+      <c r="D44" s="22">
         <f>研发加计扣除归集审核表!D44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50" t="s">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="52" t="str">
@@ -3627,13 +3628,13 @@
         <v/>
       </c>
       <c r="C45" s="53"/>
-      <c r="D45" s="51">
+      <c r="D45" s="22">
         <f>研发加计扣除归集审核表!D45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
         <v>91</v>
       </c>
       <c r="B46" s="52" t="str">
@@ -3641,13 +3642,13 @@
         <v/>
       </c>
       <c r="C46" s="53"/>
-      <c r="D46" s="51">
+      <c r="D46" s="22">
         <f>研发加计扣除归集审核表!D46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="52" t="str">
@@ -3655,13 +3656,13 @@
         <v/>
       </c>
       <c r="C47" s="53"/>
-      <c r="D47" s="51">
+      <c r="D47" s="22">
         <f>研发加计扣除归集审核表!D47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50" t="s">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B48" s="52" t="str">
@@ -3669,13 +3670,13 @@
         <v/>
       </c>
       <c r="C48" s="53"/>
-      <c r="D48" s="51">
+      <c r="D48" s="22">
         <f>研发加计扣除归集审核表!D48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="52" t="str">
@@ -3683,13 +3684,13 @@
         <v/>
       </c>
       <c r="C49" s="53"/>
-      <c r="D49" s="51">
+      <c r="D49" s="22">
         <f>研发加计扣除归集审核表!D49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B50" s="52" t="str">
@@ -3697,13 +3698,13 @@
         <v/>
       </c>
       <c r="C50" s="53"/>
-      <c r="D50" s="51">
+      <c r="D50" s="22">
         <f>研发加计扣除归集审核表!D50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50" t="s">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B51" s="52" t="str">
@@ -3711,13 +3712,13 @@
         <v/>
       </c>
       <c r="C51" s="53"/>
-      <c r="D51" s="51">
+      <c r="D51" s="22">
         <f>研发加计扣除归集审核表!D51</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="52" t="str">
@@ -3725,13 +3726,13 @@
         <v/>
       </c>
       <c r="C52" s="53"/>
-      <c r="D52" s="51">
+      <c r="D52" s="22">
         <f>研发加计扣除归集审核表!D52</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B53" s="52" t="str">
@@ -3739,13 +3740,13 @@
         <v/>
       </c>
       <c r="C53" s="53"/>
-      <c r="D53" s="51">
+      <c r="D53" s="22">
         <f>研发加计扣除归集审核表!D53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B54" s="52" t="str">
@@ -3753,13 +3754,13 @@
         <v/>
       </c>
       <c r="C54" s="53"/>
-      <c r="D54" s="51">
+      <c r="D54" s="22">
         <f>研发加计扣除归集审核表!D54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50" t="s">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B55" s="52" t="str">
@@ -3767,13 +3768,13 @@
         <v/>
       </c>
       <c r="C55" s="53"/>
-      <c r="D55" s="51">
+      <c r="D55" s="22">
         <f>研发加计扣除归集审核表!D55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="50" t="s">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B56" s="52" t="str">
@@ -3781,13 +3782,13 @@
         <v/>
       </c>
       <c r="C56" s="53"/>
-      <c r="D56" s="51">
+      <c r="D56" s="22">
         <f>研发加计扣除归集审核表!D56</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="50" t="s">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B57" s="52" t="str">
@@ -3795,13 +3796,13 @@
         <v/>
       </c>
       <c r="C57" s="53"/>
-      <c r="D57" s="51">
+      <c r="D57" s="22">
         <f>研发加计扣除归集审核表!D57</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="50" t="s">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B58" s="52" t="str">
@@ -3809,13 +3810,13 @@
         <v/>
       </c>
       <c r="C58" s="53"/>
-      <c r="D58" s="51">
+      <c r="D58" s="22">
         <f>研发加计扣除归集审核表!D58</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50" t="s">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B59" s="52" t="str">
@@ -3823,13 +3824,13 @@
         <v/>
       </c>
       <c r="C59" s="53"/>
-      <c r="D59" s="51">
+      <c r="D59" s="22">
         <f>研发加计扣除归集审核表!D59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="50" t="s">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B60" s="52" t="str">
@@ -3837,13 +3838,13 @@
         <v/>
       </c>
       <c r="C60" s="53"/>
-      <c r="D60" s="51">
+      <c r="D60" s="22">
         <f>研发加计扣除归集审核表!D60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
         <v>106</v>
       </c>
       <c r="B61" s="52" t="str">
@@ -3851,13 +3852,13 @@
         <v/>
       </c>
       <c r="C61" s="53"/>
-      <c r="D61" s="51">
+      <c r="D61" s="22">
         <f>研发加计扣除归集审核表!D61</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
         <v>107</v>
       </c>
       <c r="B62" s="52" t="str">
@@ -3865,13 +3866,13 @@
         <v/>
       </c>
       <c r="C62" s="53"/>
-      <c r="D62" s="51">
+      <c r="D62" s="22">
         <f>研发加计扣除归集审核表!D62</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="50" t="s">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B63" s="52" t="str">
@@ -3879,13 +3880,13 @@
         <v/>
       </c>
       <c r="C63" s="53"/>
-      <c r="D63" s="51">
+      <c r="D63" s="22">
         <f>研发加计扣除归集审核表!D63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50" t="s">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B64" s="52" t="str">
@@ -3893,13 +3894,13 @@
         <v/>
       </c>
       <c r="C64" s="53"/>
-      <c r="D64" s="51">
+      <c r="D64" s="22">
         <f>研发加计扣除归集审核表!D64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="50" t="s">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
         <v>110</v>
       </c>
       <c r="B65" s="52" t="str">
@@ -3907,13 +3908,13 @@
         <v/>
       </c>
       <c r="C65" s="53"/>
-      <c r="D65" s="51">
+      <c r="D65" s="22">
         <f>研发加计扣除归集审核表!D65</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="50" t="s">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="s">
         <v>111</v>
       </c>
       <c r="B66" s="52" t="str">
@@ -3921,13 +3922,13 @@
         <v/>
       </c>
       <c r="C66" s="53"/>
-      <c r="D66" s="51">
+      <c r="D66" s="22">
         <f>研发加计扣除归集审核表!D66</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50" t="s">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
         <v>112</v>
       </c>
       <c r="B67" s="52" t="str">
@@ -3935,13 +3936,13 @@
         <v/>
       </c>
       <c r="C67" s="53"/>
-      <c r="D67" s="51">
+      <c r="D67" s="22">
         <f>研发加计扣除归集审核表!D67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="50" t="s">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="s">
         <v>113</v>
       </c>
       <c r="B68" s="52" t="str">
@@ -3949,13 +3950,13 @@
         <v/>
       </c>
       <c r="C68" s="53"/>
-      <c r="D68" s="51">
+      <c r="D68" s="22">
         <f>研发加计扣除归集审核表!D68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="50" t="s">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
         <v>114</v>
       </c>
       <c r="B69" s="52" t="str">
@@ -3963,13 +3964,13 @@
         <v/>
       </c>
       <c r="C69" s="53"/>
-      <c r="D69" s="51">
+      <c r="D69" s="22">
         <f>研发加计扣除归集审核表!D69</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="50" t="s">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
         <v>115</v>
       </c>
       <c r="B70" s="52" t="str">
@@ -3977,13 +3978,13 @@
         <v/>
       </c>
       <c r="C70" s="53"/>
-      <c r="D70" s="51">
+      <c r="D70" s="22">
         <f>研发加计扣除归集审核表!D70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="50" t="s">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B71" s="52" t="str">
@@ -3991,111 +3992,111 @@
         <v/>
       </c>
       <c r="C71" s="53"/>
-      <c r="D71" s="51">
+      <c r="D71" s="22">
         <f>研发加计扣除归集审核表!D71</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="15">
         <v>7</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="51">
+      <c r="C72" s="31"/>
+      <c r="D72" s="22">
         <f>研发加计扣除归集审核表!D72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="15">
         <v>7.1</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="51">
+      <c r="C73" s="33"/>
+      <c r="D73" s="22">
         <f>研发加计扣除归集审核表!D73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="24">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="15">
         <v>8</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="48">
+      <c r="C74" s="31"/>
+      <c r="D74" s="19">
         <f>D6+D10+D19+D22+D26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="24">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="15">
         <v>8.1</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="39"/>
-      <c r="D75" s="48">
+      <c r="C75" s="34"/>
+      <c r="D75" s="19">
         <f>ROUND(D74*0.1/0.9,2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="24">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="15">
         <v>9</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="51">
+      <c r="C76" s="31"/>
+      <c r="D76" s="22">
         <f>研发加计扣除归集审核表!D76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="24">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="15">
         <v>10</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="51">
+      <c r="C77" s="31"/>
+      <c r="D77" s="22">
         <f>研发加计扣除归集审核表!D77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="24">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="15">
         <v>10.1</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="51">
+      <c r="C78" s="33"/>
+      <c r="D78" s="22">
         <f>研发加计扣除归集审核表!D78</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="45">
+    <row r="79" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18">
         <v>11</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="49">
+      <c r="C79" s="51"/>
+      <c r="D79" s="20">
         <f>ROUND((D76+D78)*0.5,2)</f>
         <v>0</v>
       </c>
@@ -4110,11 +4111,6 @@
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
@@ -4122,11 +4118,11 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
@@ -4134,11 +4130,11 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
@@ -4146,11 +4142,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
@@ -4158,11 +4154,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:B13"/>
@@ -4170,12 +4166,17 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
